--- a/Samurai/武士位置.xlsx
+++ b/Samurai/武士位置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -800,7 +800,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -867,6 +867,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -895,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -919,6 +925,8 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1226,7 +1234,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1371,7 @@
       <c r="K3" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="24" t="s">
         <v>172</v>
       </c>
       <c r="M3" s="5" t="s">
@@ -1762,7 +1770,7 @@
       <c r="C12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -1975,6 +1983,7 @@
       <c r="H23" t="s">
         <v>231</v>
       </c>
+      <c r="K23" s="23"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G24" s="21"/>

--- a/Samurai/武士位置.xlsx
+++ b/Samurai/武士位置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
   <si>
     <t>0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -756,6 +756,14 @@
   </si>
   <si>
     <t>sight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,7 +808,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -873,6 +881,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -901,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -927,12 +941,19 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA50021"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1234,7 +1255,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1427,7 @@
       <c r="G4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="25" t="s">
         <v>121</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -1829,7 +1850,7 @@
       <c r="G13" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="10" t="s">
         <v>129</v>
       </c>
       <c r="I13" s="5" t="s">
@@ -1984,11 +2005,18 @@
         <v>231</v>
       </c>
       <c r="K23" s="23"/>
+      <c r="L23" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G24" s="21"/>
       <c r="H24" t="s">
         <v>232</v>
+      </c>
+      <c r="K24" s="26"/>
+      <c r="L24" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
